--- a/example_data/EMA/label_corrected/biktarvy-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/biktarvy-epar-product-information_en.xlsx
@@ -6002,7 +6002,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
